--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Anomalies closes" r:id="rId1" sheetId="38"/>
-    <sheet name="E31" r:id="rId9" sheetId="72"/>
-    <sheet name="E30" r:id="rId10" sheetId="73"/>
-    <sheet name="E32" r:id="rId11" sheetId="74"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="75"/>
+    <sheet name="E31" r:id="rId9" sheetId="76"/>
+    <sheet name="E30" r:id="rId10" sheetId="77"/>
+    <sheet name="E32" r:id="rId11" sheetId="78"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="79"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="57">
   <si>
     <t>Edition</t>
   </si>
@@ -77,85 +77,118 @@
     <t>EDITION</t>
   </si>
   <si>
+    <t>Lot 245316</t>
+  </si>
+  <si>
+    <t>E30.1_Fil_De_Leau FDL/CC 16.02</t>
+  </si>
+  <si>
+    <t>Lot 287680</t>
+  </si>
+  <si>
+    <t>CHC2018-S05</t>
+  </si>
+  <si>
+    <t>VMOE</t>
+  </si>
+  <si>
+    <t>Lot 289483</t>
+  </si>
+  <si>
+    <t>E30.1_Fil_De_Leau FDL/CC 13.10</t>
+  </si>
+  <si>
+    <t>Lot 294822</t>
+  </si>
+  <si>
+    <t>PSUPP009</t>
+  </si>
+  <si>
+    <t>Test Validation PIC</t>
+  </si>
+  <si>
+    <t>GENTET Pierrick</t>
+  </si>
+  <si>
+    <t>SNAPSHOT</t>
+  </si>
+  <si>
+    <t>BFCC2002</t>
+  </si>
+  <si>
+    <t>LOT_BFCC20_02</t>
+  </si>
+  <si>
+    <t>BASSELIN Veronique</t>
+  </si>
+  <si>
+    <t>RELEASE</t>
+  </si>
+  <si>
+    <t>FE000069</t>
+  </si>
+  <si>
+    <t>wi_lot pour livraison matière CHCS05 - 2018</t>
+  </si>
+  <si>
+    <t>COERWINKEL Frederice</t>
+  </si>
+  <si>
+    <t>BF054801</t>
+  </si>
+  <si>
+    <t>Lot_Projet_BF054801_MKT_Rempl_outil_envoi_Emails_lot1_creation_projet_datastage</t>
+  </si>
+  <si>
+    <t>CICHOCKI Thomas</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>BF053501</t>
+  </si>
+  <si>
+    <t>Wi-lot pour livraison CHCS05 HULK</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Date création</t>
+  </si>
+  <si>
+    <t>Lot 292080</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Lot 245316</t>
-  </si>
-  <si>
-    <t>E30.1_Fil_De_Leau FDL/CC 16.02</t>
-  </si>
-  <si>
-    <t>Lot 287680</t>
-  </si>
-  <si>
-    <t>CHC2018-S05</t>
-  </si>
-  <si>
-    <t>VMOE</t>
-  </si>
-  <si>
-    <t>Lot 289483</t>
-  </si>
-  <si>
-    <t>E30.1_Fil_De_Leau FDL/CC 13.10</t>
-  </si>
-  <si>
-    <t>Lot 294822</t>
-  </si>
-  <si>
-    <t>PSUPP009</t>
-  </si>
-  <si>
-    <t>Test Validation PIC</t>
-  </si>
-  <si>
-    <t>GENTET Pierrick</t>
-  </si>
-  <si>
-    <t>SNAPSHOT</t>
-  </si>
-  <si>
-    <t>BFCC2002</t>
-  </si>
-  <si>
-    <t>LOT_BFCC20_02</t>
-  </si>
-  <si>
-    <t>BASSELIN Veronique</t>
-  </si>
-  <si>
-    <t>RELEASE</t>
-  </si>
-  <si>
-    <t>FE000069</t>
-  </si>
-  <si>
-    <t>wi_lot pour livraison matière CHCS05 - 2018</t>
-  </si>
-  <si>
-    <t>COERWINKEL Frederice</t>
-  </si>
-  <si>
-    <t>BF054801</t>
-  </si>
-  <si>
-    <t>Lot_Projet_BF054801_MKT_Rempl_outil_envoi_Emails_lot1_creation_projet_datastage</t>
-  </si>
-  <si>
-    <t>CICHOCKI Thomas</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>BF053501</t>
-  </si>
-  <si>
-    <t>Wi-lot pour livraison CHCS05 HULK</t>
-  </si>
-  <si>
-    <t/>
+    <t>DOMAINE DISTRIBUTION ET OUTILS SOCLES</t>
+  </si>
+  <si>
+    <t>Departement</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DATA FACTORY ET MARKETING</t>
+  </si>
+  <si>
+    <t>Distribution Sud</t>
+  </si>
+  <si>
+    <t>FE000062</t>
+  </si>
+  <si>
+    <t>FE000062_Base_Coclico_Livraison_E31_P0073902_P0121205</t>
+  </si>
+  <si>
+    <t>FORTUNE Francois</t>
   </si>
 </sst>
 </file>
@@ -163,7 +196,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +333,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <u val="single"/>
@@ -335,32 +398,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="46">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,6 +585,16 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="49"/>
       </patternFill>
@@ -567,6 +616,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
@@ -575,38 +634,8 @@
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -752,13 +781,6 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -805,7 +827,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -906,202 +928,133 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="37" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="39" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="39" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="39" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="39" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="39" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="39" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="39" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="39" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" borderId="13" fillId="39" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="13" fillId="39" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="43" borderId="15" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="45" borderId="15" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="15" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="15" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="15" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="15" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1464,12 +1417,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7578125" collapsed="true"/>
     <col min="1" max="1" bestFit="true" customWidth="true" width="9.2421875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.03515625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.4296875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.69140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7578125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="9.609375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.328125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
@@ -1533,7 +1486,53 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="45">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s" s="46">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s" s="45">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s" s="45">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1547,16 +1546,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="47" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1565,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1579,16 +1578,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="48" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1597,49 +1596,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="9.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.03515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="40.1171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="19.21875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="12.69140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
@@ -1647,283 +1614,332 @@
     <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.734375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="10.34765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="9.5390625" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="17.16015625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="10.30859375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="8.33203125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="10.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.17578125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="9.5390625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="17.16015625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="10.30859375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="8.33203125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="10.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="K1" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="M1" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="N1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="88" t="s">
+      <c r="O1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="P1" s="64" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="90" t="s">
+      <c r="A2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="G2" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="H2" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="66" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" s="91" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="91" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="92" t="s">
+      <c r="A3" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="G3" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="H3" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="67" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="68" t="s">
         <v>34</v>
-      </c>
-      <c r="H3" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="93" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="93" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="93"/>
-      <c r="L3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="93" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="94" t="s">
+      <c r="A4" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="G4" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="94" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="95" t="s">
+      <c r="H4" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="95" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="95"/>
-      <c r="L4" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="95" t="s">
-        <v>31</v>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="96" t="s">
+      <c r="A5" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="G5" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="H5" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="97" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="97" t="s">
-        <v>35</v>
+      <c r="P5" s="72" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="98" t="s">
+      <c r="A6" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="99" t="s">
+      <c r="G6" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="99"/>
-      <c r="L6" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="99" t="s">
-        <v>31</v>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="74" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="76" t="n">
+        <v>43164.0</v>
+      </c>
+      <c r="L7" s="76"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1933,6 +1949,7 @@
     <hyperlink ref="I4" r:id="rId3"/>
     <hyperlink ref="I5" r:id="rId4"/>
     <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
+    <workbookView xWindow="120" yWindow="360" windowWidth="27315" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Anomalies closes" r:id="rId1" sheetId="38"/>
-    <sheet name="E31" r:id="rId9" sheetId="80"/>
-    <sheet name="E30" r:id="rId10" sheetId="81"/>
-    <sheet name="E32" r:id="rId11" sheetId="82"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="83"/>
+    <sheet name="Anomalies closes" sheetId="38" r:id="rId1"/>
+    <sheet name="E31" sheetId="80" r:id="rId2"/>
+    <sheet name="E30" sheetId="81" r:id="rId3"/>
+    <sheet name="E32" sheetId="82" r:id="rId4"/>
+    <sheet name="SUIVI Qualité" sheetId="83" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
   <si>
     <t>Edition</t>
   </si>
@@ -198,16 +198,19 @@
   </si>
   <si>
     <t>wi_lot pour livraison matière  SIDV2 CHCS17 2018</t>
+  </si>
+  <si>
+    <t>Date relance</t>
+  </si>
+  <si>
+    <t>nouvelle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,49 +383,27 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,48 +603,8 @@
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -802,385 +743,285 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="5" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="8" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="10" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="11" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="14" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
-    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
+  <cellStyleXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="36" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="36" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="36" fontId="23" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="44" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="44" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle builtinId="30" customBuiltin="1" name="20 % - Accent1" xfId="19"/>
-    <cellStyle builtinId="34" customBuiltin="1" name="20 % - Accent2" xfId="23"/>
-    <cellStyle builtinId="38" customBuiltin="1" name="20 % - Accent3" xfId="27"/>
-    <cellStyle builtinId="42" customBuiltin="1" name="20 % - Accent4" xfId="31"/>
-    <cellStyle builtinId="46" customBuiltin="1" name="20 % - Accent5" xfId="35"/>
-    <cellStyle builtinId="50" customBuiltin="1" name="20 % - Accent6" xfId="39"/>
-    <cellStyle builtinId="31" customBuiltin="1" name="40 % - Accent1" xfId="20"/>
-    <cellStyle builtinId="35" customBuiltin="1" name="40 % - Accent2" xfId="24"/>
-    <cellStyle builtinId="39" customBuiltin="1" name="40 % - Accent3" xfId="28"/>
-    <cellStyle builtinId="43" customBuiltin="1" name="40 % - Accent4" xfId="32"/>
-    <cellStyle builtinId="47" customBuiltin="1" name="40 % - Accent5" xfId="36"/>
-    <cellStyle builtinId="51" customBuiltin="1" name="40 % - Accent6" xfId="40"/>
-    <cellStyle builtinId="32" customBuiltin="1" name="60 % - Accent1" xfId="21"/>
-    <cellStyle builtinId="36" customBuiltin="1" name="60 % - Accent2" xfId="25"/>
-    <cellStyle builtinId="40" customBuiltin="1" name="60 % - Accent3" xfId="29"/>
-    <cellStyle builtinId="44" customBuiltin="1" name="60 % - Accent4" xfId="33"/>
-    <cellStyle builtinId="48" customBuiltin="1" name="60 % - Accent5" xfId="37"/>
-    <cellStyle builtinId="52" customBuiltin="1" name="60 % - Accent6" xfId="41"/>
-    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
-    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
-    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
-    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
-    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
-    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
-    <cellStyle builtinId="11" customBuiltin="1" name="Avertissement" xfId="14"/>
-    <cellStyle builtinId="22" customBuiltin="1" name="Calcul" xfId="11"/>
-    <cellStyle builtinId="24" customBuiltin="1" name="Cellule liée" xfId="12"/>
-    <cellStyle builtinId="10" customBuiltin="1" name="Commentaire" xfId="15"/>
-    <cellStyle builtinId="20" customBuiltin="1" name="Entrée" xfId="9"/>
-    <cellStyle builtinId="27" customBuiltin="1" name="Insatisfaisant" xfId="7"/>
-    <cellStyle builtinId="28" customBuiltin="1" name="Neutre" xfId="8"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="44">
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle builtinId="26" customBuiltin="1" name="Satisfaisant" xfId="6"/>
-    <cellStyle builtinId="21" customBuiltin="1" name="Sortie" xfId="10"/>
-    <cellStyle builtinId="53" customBuiltin="1" name="Texte explicatif" xfId="16"/>
-    <cellStyle builtinId="15" customBuiltin="1" name="Titre" xfId="1"/>
-    <cellStyle builtinId="16" customBuiltin="1" name="Titre 1" xfId="2"/>
-    <cellStyle builtinId="17" customBuiltin="1" name="Titre 2" xfId="3"/>
-    <cellStyle builtinId="18" customBuiltin="1" name="Titre 3" xfId="4"/>
-    <cellStyle builtinId="19" customBuiltin="1" name="Titre 4" xfId="5"/>
-    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
-    <cellStyle builtinId="23" customBuiltin="1" name="Vérification" xfId="13"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="3" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="0" name="Style de tableau 1" pivot="0"/>
-    <tableStyle count="0" name="Style de tableau 2" pivot="0"/>
-    <tableStyle count="0" name="Style de tableau 3" pivot="0"/>
+  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Style de tableau 1" pivot="0" count="0"/>
+    <tableStyle name="Style de tableau 2" pivot="0" count="0"/>
+    <tableStyle name="Style de tableau 3" pivot="0" count="0"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -1200,10 +1041,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1361,7 +1202,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1370,13 +1211,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1386,7 +1227,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1395,7 +1236,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1404,7 +1245,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1414,12 +1255,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1450,7 +1291,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1469,7 +1310,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1481,8 +1322,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
@@ -1490,24 +1331,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="12.7578125" collapsed="true"/>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.2421875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.03515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.4296875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.69140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.609375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.328125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.734375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.34765625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="9.5390625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.16015625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.30859375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="8.33203125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.828125" collapsed="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1555,497 +1395,516 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.50390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="19" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="51">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s" s="52">
-        <v>58</v>
-      </c>
-      <c r="C2" t="s" s="51">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s" s="51">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="54" t="s">
+      <c r="J1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="54" t="s">
-        <v>15</v>
+      <c r="K1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>13</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="9.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.1171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.21875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.69140625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.34765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.17578125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="9.5390625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="17.16015625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="10.30859375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="8.33203125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="10.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="68" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="70" t="s">
-        <v>13</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="73"/>
-      <c r="B2" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="71" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="72" t="s">
+    <row r="3" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="72" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="54">
+        <v>312996</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="74" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="44"/>
+      <c r="B5" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="44"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="54">
+        <v>312946</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="75" t="s">
+      <c r="D7" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="75" t="s">
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="54">
+        <v>313058</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="79"/>
-      <c r="B4" s="77" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C8" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="77" t="s">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="77" t="s">
+      <c r="F8" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="78" t="s">
+      <c r="H8" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="79"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="78" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="82"/>
-      <c r="B5" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="80" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="81" t="s">
-        <v>41</v>
-      </c>
-      <c r="P5" s="81" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="85"/>
-      <c r="B6" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="83" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="84" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="84" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="84" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="88"/>
-      <c r="B7" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="n" s="88">
-        <v>43164.0</v>
-      </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="87" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="91"/>
-      <c r="B8" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="89" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="90" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="n" s="91">
-        <v>43166.0</v>
-      </c>
-      <c r="L8" s="90"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90" t="s">
+      <c r="K8" s="53">
+        <v>43166</v>
+      </c>
+      <c r="L8" s="53"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2058,7 +1917,11 @@
     <hyperlink ref="I6" r:id="rId5"/>
     <hyperlink ref="I7" r:id="rId6"/>
     <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="M5" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=312946" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0548_MKT_Rempl outil envoi Emails - action=com.ibm.team.workitem.viewWorkItem&amp;id=312946"/>
+    <hyperlink ref="M3" r:id="rId9" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=312996" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=312996"/>
+    <hyperlink ref="M7" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=313058" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_Donn%C3%A9es - action=com.ibm.team.workitem.viewWorkItem&amp;id=313058"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="360" windowWidth="27315" windowHeight="12285" activeTab="4"/>
+    <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="Anomalies closes" sheetId="38" r:id="rId1"/>
-    <sheet name="E31" sheetId="80" r:id="rId2"/>
-    <sheet name="E30" sheetId="81" r:id="rId3"/>
-    <sheet name="E32" sheetId="82" r:id="rId4"/>
-    <sheet name="SUIVI Qualité" sheetId="83" r:id="rId5"/>
+    <sheet name="E31" r:id="rId9" sheetId="84"/>
+    <sheet name="E30" r:id="rId10" sheetId="85"/>
+    <sheet name="E32" r:id="rId11" sheetId="86"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="87"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="88"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="62">
   <si>
     <t>Edition</t>
   </si>
@@ -210,7 +210,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,8 +405,68 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,8 +666,38 @@
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -743,285 +836,415 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="4" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="5" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="8" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="9" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="5" fontId="10" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="6" fontId="11" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="6" fontId="12" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="13" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="7" fontId="14" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="16" numFmtId="0"/>
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="102">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="20" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="36" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="36" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="36" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="36" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="43">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="25" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="36" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Commentaire" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="30" customBuiltin="1" name="20 % - Accent1" xfId="19"/>
+    <cellStyle builtinId="34" customBuiltin="1" name="20 % - Accent2" xfId="23"/>
+    <cellStyle builtinId="38" customBuiltin="1" name="20 % - Accent3" xfId="27"/>
+    <cellStyle builtinId="42" customBuiltin="1" name="20 % - Accent4" xfId="31"/>
+    <cellStyle builtinId="46" customBuiltin="1" name="20 % - Accent5" xfId="35"/>
+    <cellStyle builtinId="50" customBuiltin="1" name="20 % - Accent6" xfId="39"/>
+    <cellStyle builtinId="31" customBuiltin="1" name="40 % - Accent1" xfId="20"/>
+    <cellStyle builtinId="35" customBuiltin="1" name="40 % - Accent2" xfId="24"/>
+    <cellStyle builtinId="39" customBuiltin="1" name="40 % - Accent3" xfId="28"/>
+    <cellStyle builtinId="43" customBuiltin="1" name="40 % - Accent4" xfId="32"/>
+    <cellStyle builtinId="47" customBuiltin="1" name="40 % - Accent5" xfId="36"/>
+    <cellStyle builtinId="51" customBuiltin="1" name="40 % - Accent6" xfId="40"/>
+    <cellStyle builtinId="32" customBuiltin="1" name="60 % - Accent1" xfId="21"/>
+    <cellStyle builtinId="36" customBuiltin="1" name="60 % - Accent2" xfId="25"/>
+    <cellStyle builtinId="40" customBuiltin="1" name="60 % - Accent3" xfId="29"/>
+    <cellStyle builtinId="44" customBuiltin="1" name="60 % - Accent4" xfId="33"/>
+    <cellStyle builtinId="48" customBuiltin="1" name="60 % - Accent5" xfId="37"/>
+    <cellStyle builtinId="52" customBuiltin="1" name="60 % - Accent6" xfId="41"/>
+    <cellStyle builtinId="29" customBuiltin="1" name="Accent1" xfId="18"/>
+    <cellStyle builtinId="33" customBuiltin="1" name="Accent2" xfId="22"/>
+    <cellStyle builtinId="37" customBuiltin="1" name="Accent3" xfId="26"/>
+    <cellStyle builtinId="41" customBuiltin="1" name="Accent4" xfId="30"/>
+    <cellStyle builtinId="45" customBuiltin="1" name="Accent5" xfId="34"/>
+    <cellStyle builtinId="49" customBuiltin="1" name="Accent6" xfId="38"/>
+    <cellStyle builtinId="11" customBuiltin="1" name="Avertissement" xfId="14"/>
+    <cellStyle builtinId="22" customBuiltin="1" name="Calcul" xfId="11"/>
+    <cellStyle builtinId="24" customBuiltin="1" name="Cellule liée" xfId="12"/>
+    <cellStyle builtinId="10" customBuiltin="1" name="Commentaire" xfId="15"/>
+    <cellStyle builtinId="20" customBuiltin="1" name="Entrée" xfId="9"/>
+    <cellStyle builtinId="27" customBuiltin="1" name="Insatisfaisant" xfId="7"/>
+    <cellStyle builtinId="8" name="Lien hypertexte" xfId="43"/>
+    <cellStyle builtinId="28" customBuiltin="1" name="Neutre" xfId="8"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle builtinId="26" customBuiltin="1" name="Satisfaisant" xfId="6"/>
+    <cellStyle builtinId="21" customBuiltin="1" name="Sortie" xfId="10"/>
+    <cellStyle builtinId="53" customBuiltin="1" name="Texte explicatif" xfId="16"/>
+    <cellStyle builtinId="15" customBuiltin="1" name="Titre" xfId="1"/>
+    <cellStyle builtinId="16" customBuiltin="1" name="Titre 1" xfId="2"/>
+    <cellStyle builtinId="17" customBuiltin="1" name="Titre 2" xfId="3"/>
+    <cellStyle builtinId="18" customBuiltin="1" name="Titre 3" xfId="4"/>
+    <cellStyle builtinId="19" customBuiltin="1" name="Titre 4" xfId="5"/>
+    <cellStyle builtinId="25" customBuiltin="1" name="Total" xfId="17"/>
+    <cellStyle builtinId="23" customBuiltin="1" name="Vérification" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Style de tableau 1" pivot="0" count="0"/>
-    <tableStyle name="Style de tableau 2" pivot="0" count="0"/>
-    <tableStyle name="Style de tableau 3" pivot="0" count="0"/>
+  <tableStyles count="3" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
+    <tableStyle count="0" name="Style de tableau 1" pivot="0"/>
+    <tableStyle count="0" name="Style de tableau 2" pivot="0"/>
+    <tableStyle count="0" name="Style de tableau 3" pivot="0"/>
   </tableStyles>
   <colors>
     <mruColors>
@@ -1041,10 +1264,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1202,7 +1425,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1211,13 +1434,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1227,7 +1450,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1236,7 +1459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1245,7 +1468,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1255,12 +1478,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1291,7 +1514,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1310,7 +1533,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1321,590 +1544,510 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="8" t="s">
+    <row r="1">
+      <c r="A1" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="C1" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>13</v>
-      </c>
+      <c r="D1" s="61"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="D1" s="62"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="D1" s="63"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="40.1171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="19.21875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.69140625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="10.34765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="13.17578125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="12.37109375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="9.5390625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="17.16015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="10.30859375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="8.33203125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1">
+      <c r="A1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="J1" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>15</v>
+      <c r="K1" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="80" t="s">
+        <v>13</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="35" t="s">
-        <v>13</v>
+    <row r="2">
+      <c r="A2" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="82" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="37" t="s">
+    <row r="3">
+      <c r="A3" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="37" t="s">
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="85" t="n">
+        <v>312996.0</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="85" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="88" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="56" t="s">
+    <row r="5">
+      <c r="A5" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="91" t="n">
+        <v>312946.0</v>
+      </c>
+      <c r="N5" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="91" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="93" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="95"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="94" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q6" s="94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="57" t="s">
+      <c r="B7" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="54">
-        <v>312996</v>
-      </c>
-      <c r="N3" s="17" t="s">
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="97" t="n">
+        <v>313058.0</v>
+      </c>
+      <c r="N7" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="57" t="s">
+      <c r="O7" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" s="97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="39" t="s">
+    <row r="8">
+      <c r="A8" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C8" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="39" t="s">
+      <c r="D8" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="39" t="s">
+      <c r="F8" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="40" t="s">
+      <c r="H8" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="41"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="54">
-        <v>312946</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="54">
-        <v>313058</v>
-      </c>
-      <c r="N7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="53">
-        <v>43166</v>
-      </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52" t="s">
+      <c r="K8" t="n" s="101">
+        <v>43166.0</v>
+      </c>
+      <c r="L8" s="101"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="100" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1912,16 +2055,27 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=312946" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BF0548_MKT_Rempl outil envoi Emails - action=com.ibm.team.workitem.viewWorkItem&amp;id=312946"/>
-    <hyperlink ref="M3" r:id="rId9" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=312996" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJF_BFCC20_MKT_Comm client Etape 2 - action=com.ibm.team.workitem.viewWorkItem&amp;id=312996"/>
-    <hyperlink ref="M7" r:id="rId10" location="action=com.ibm.team.workitem.viewWorkItem&amp;id=313058" display="https://ttp10-jazz.ca-technologies.credit-agricole.fr/ccm/web/projects/PRJM_FE000062_Coclico_Donn%C3%A9es - action=com.ibm.team.workitem.viewWorkItem&amp;id=313058"/>
+    <hyperlink ref="M3" r:id="rId3"/>
+    <hyperlink ref="I4" r:id="rId4"/>
+    <hyperlink ref="I5" r:id="rId5"/>
+    <hyperlink ref="M5" r:id="rId6"/>
+    <hyperlink ref="I6" r:id="rId7"/>
+    <hyperlink ref="I7" r:id="rId8"/>
+    <hyperlink ref="M7" r:id="rId9"/>
+    <hyperlink ref="I8" r:id="rId10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="84"/>
-    <sheet name="E30" r:id="rId10" sheetId="85"/>
-    <sheet name="E32" r:id="rId11" sheetId="86"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="87"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="88"/>
+    <sheet name="E31" r:id="rId9" sheetId="89"/>
+    <sheet name="E30" r:id="rId10" sheetId="90"/>
+    <sheet name="E32" r:id="rId11" sheetId="91"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="92"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="93"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="64">
   <si>
     <t>Edition</t>
   </si>
@@ -65,9 +65,6 @@
     <t>CPI du lot</t>
   </si>
   <si>
-    <t>Traité</t>
-  </si>
-  <si>
     <t>Lot 241392</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>E31</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>DOMAINE DISTRIBUTION ET OUTILS SOCLES</t>
   </si>
   <si>
@@ -204,6 +198,19 @@
   </si>
   <si>
     <t>nouvelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>l'analyse du composant ds_DTWH-FWK0005_CHARGEMENT 13 s'est fait le 12/01 avec la version 30.60.0-SNAPSHOT
+(avant maj de la criticité du plugin DataStage)</t>
+  </si>
+  <si>
+    <t>même remarque que le lot 294822</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -213,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,22 +395,8 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -466,7 +459,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,17 +646,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
       </patternFill>
     </fill>
     <fill>
@@ -844,7 +832,7 @@
       <right style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="4" numFmtId="0"/>
@@ -888,10 +876,18 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,85 +927,49 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="19" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
@@ -1018,7 +978,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
@@ -1027,7 +987,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
@@ -1036,47 +996,22 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="22" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="36" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="36" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="36" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="43">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="25" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="25" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="36" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
@@ -1130,71 +1065,71 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="42" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="40" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="43">
     <cellStyle builtinId="30" customBuiltin="1" name="20 % - Accent1" xfId="19"/>
     <cellStyle builtinId="34" customBuiltin="1" name="20 % - Accent2" xfId="23"/>
     <cellStyle builtinId="38" customBuiltin="1" name="20 % - Accent3" xfId="27"/>
@@ -1225,7 +1160,6 @@
     <cellStyle builtinId="10" customBuiltin="1" name="Commentaire" xfId="15"/>
     <cellStyle builtinId="20" customBuiltin="1" name="Entrée" xfId="9"/>
     <cellStyle builtinId="27" customBuiltin="1" name="Insatisfaisant" xfId="7"/>
-    <cellStyle builtinId="8" name="Lien hypertexte" xfId="43"/>
     <cellStyle builtinId="28" customBuiltin="1" name="Neutre" xfId="8"/>
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="42"/>
@@ -1544,7 +1478,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1558,23 +1492,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="61"/>
+      <c r="D1" s="43"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1588,23 +1522,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="44"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1618,23 +1552,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="63"/>
+      <c r="D1" s="45"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
@@ -1656,399 +1590,399 @@
     <col min="12" max="12" width="12.37109375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="9.5390625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="17.16015625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="10.30859375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="104.546875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="8.33203125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="76" t="s">
+      <c r="K1" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="77" t="s">
+      <c r="N1" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="O1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="P1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="80" t="s">
+      <c r="Q1" s="62" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="81" t="s">
+      <c r="A2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="G2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="H2" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="64" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="82" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="84" t="s">
+      <c r="A3" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="G3" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="H3" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="67" t="n">
+        <v>312996.0</v>
+      </c>
+      <c r="N3" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="67" t="s">
         <v>33</v>
-      </c>
-      <c r="H3" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="85" t="n">
-        <v>312996.0</v>
-      </c>
-      <c r="N3" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3" s="85" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="87" t="s">
+      <c r="A4" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="G4" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="88" t="s">
-        <v>30</v>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="90" t="s">
+      <c r="A5" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="G5" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="H5" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="73" t="n">
+        <v>312946.0</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="91" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="91" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="91" t="n">
-        <v>312946.0</v>
-      </c>
-      <c r="N5" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="O5" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="91" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="91" t="s">
-        <v>34</v>
+      <c r="Q5" s="73" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="93" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="93" t="s">
+      <c r="A6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="94" t="s">
+      <c r="G6" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="94" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="94" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="94" t="s">
-        <v>30</v>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="96" t="s">
+      <c r="G7" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="97" t="s">
+      <c r="H7" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="97" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="97" t="n">
+      <c r="I7" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="79" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N7" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="P7" s="97" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="97" t="s">
-        <v>34</v>
+      <c r="N7" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="79" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="99" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="100" t="s">
+      <c r="A8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="n" s="101">
+      <c r="G8" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="n" s="83">
         <v>43166.0</v>
       </c>
-      <c r="L8" s="101"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="100" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="100" t="s">
-        <v>30</v>
+      <c r="L8" s="83"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="82" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="89"/>
-    <sheet name="E30" r:id="rId10" sheetId="90"/>
-    <sheet name="E32" r:id="rId11" sheetId="91"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="92"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="93"/>
+    <sheet name="E31" r:id="rId9" sheetId="94"/>
+    <sheet name="E30" r:id="rId10" sheetId="95"/>
+    <sheet name="E32" r:id="rId11" sheetId="96"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="97"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="98"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="74">
   <si>
     <t>Edition</t>
   </si>
@@ -200,17 +200,52 @@
     <t>nouvelle</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>l'analyse du composant ds_DTWH-FWK0005_CHARGEMENT 13 s'est fait le 12/01 avec la version 30.60.0-SNAPSHOT
-(avant maj de la criticité du plugin DataStage)</t>
-  </si>
-  <si>
-    <t>même remarque que le lot 294822</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>DS_PRCO_PRCOM_01 13  &gt; 3 news blocker Issues SEQ005</t>
+  </si>
+  <si>
+    <t>l'analyse des composants ci-dessous s'est faite avant la mise à jour de la criticité du plugin DataStage
+DS_DTWH_CLIENT_COMMERCIAL 13 =&gt; 52 news blocker Issue NOM002PX
+DS_DTWH_FACTURATION 13  =&gt; 12 news blocker Issue NOM002PX
+DS_DTWH_FWK0005_ACQUISITION_QUAI 13  =&gt; 341 news blocker Issue NOM002PX</t>
+  </si>
+  <si>
+    <t>DS_EMAE_RempEmessage 13 =&gt; 2 RM001 et 1 SEQ005 news blocker Issues</t>
+  </si>
+  <si>
+    <t>DS_COCL_RepriseOscare 14 =&gt; 9 JOB027 et 4 RM001 news blocker issues</t>
+  </si>
+  <si>
+    <t>test passage dans l'onglet anomalies closes</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>dérogée</t>
+  </si>
+  <si>
+    <t>DS_FABO_LIB 13 &gt; 1 news blocker Issues SEQ005
+(composant transverse de application Plate-forme de fabrication)</t>
+  </si>
+  <si>
+    <t>expliquée</t>
+  </si>
+  <si>
+    <t>héritage du QG Java car les composants 14 n'étaient pas rattachés au QG DataStage. Rattachement effectués le 12 Mars.
+Grégoire voit si possible d'automatiser le rattachement du QG DataStage aux "Composant DS_"</t>
+  </si>
+  <si>
+    <t>l'analyse des composants s'est faite avant la mise à jour de la criticité du plugin DataStage
+DS_DTWH_FWK0005_CHARGEMENT 13  =&gt; 61 news blocker Issue NOM002PX</t>
+  </si>
+  <si>
+    <t>ouverte</t>
   </si>
 </sst>
 </file>
@@ -220,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,46 +392,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -458,8 +471,20 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -651,7 +676,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -682,6 +708,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -877,7 +913,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -888,123 +924,47 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="19" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="18" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="20" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="18" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="35" fontId="18" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
@@ -1014,61 +974,61 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="10" fillId="11" fontId="2" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="20">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="20" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1077,7 +1037,7 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1086,7 +1046,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1095,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1104,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1113,16 +1073,25 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1478,7 +1447,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1492,23 +1461,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="19"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1522,23 +1491,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="20"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1552,23 +1521,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="21"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R8"/>
   <sheetViews>
@@ -1579,409 +1548,409 @@
     <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.1171875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="19.21875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.69140625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.96875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.84765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="10.34765625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="13.17578125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="12.37109375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="9.5390625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="17.16015625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="104.546875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="8.33203125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.5" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="10.41015625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="18.72265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="108.88671875" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="9.08984375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="N1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="62" t="s">
+      <c r="Q1" s="38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="63" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="63" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="40" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="67" t="s">
+      <c r="I3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="67" t="n">
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="43" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="O3" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="67" t="s">
+      <c r="Q3" s="43" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="70" t="s">
+      <c r="I4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="69" t="s">
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="P4" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="70" t="s">
+      <c r="Q4" s="46" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="73" t="n">
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="49" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="73" t="s">
+      <c r="O5" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="73" t="s">
+      <c r="Q5" s="49" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="75" t="s">
+      <c r="F6" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="75" t="s">
+      <c r="G6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="75" t="s">
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="P6" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="76" t="s">
+      <c r="Q6" s="52" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="79" t="s">
+      <c r="J7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="79" t="n">
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="55" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N7" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="O7" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" s="79" t="s">
+      <c r="N7" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="79" t="s">
+      <c r="Q7" s="55" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="82" t="s">
+      <c r="I8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="n" s="83">
+      <c r="K8" t="n" s="59">
         <v>43166.0</v>
       </c>
-      <c r="L8" s="83"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="81" t="s">
+      <c r="L8" s="59"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P8" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="82" t="s">
+      <c r="Q8" s="58" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2002,14 +1971,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.46484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="4.46484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.03515625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.46484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.80078125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.46484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.54296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="4.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.65625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="7.8046875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="5.5859375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="39.52734375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="1.11328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="61"/>
+      <c r="K2" t="n" s="62">
+        <v>43166.0</v>
+      </c>
+      <c r="L2" s="62"/>
+      <c r="M2" s="61" t="n">
+        <v>999999.0</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="94"/>
-    <sheet name="E30" r:id="rId10" sheetId="95"/>
-    <sheet name="E32" r:id="rId11" sheetId="96"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="97"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="98"/>
+    <sheet name="E31" r:id="rId9" sheetId="109"/>
+    <sheet name="E30" r:id="rId10" sheetId="110"/>
+    <sheet name="E32" r:id="rId11" sheetId="111"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="112"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="113"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="76">
   <si>
     <t>Edition</t>
   </si>
@@ -200,52 +200,62 @@
     <t>nouvelle</t>
   </si>
   <si>
-    <t>DS_PRCO_PRCOM_01 13  &gt; 3 news blocker Issues SEQ005</t>
-  </si>
-  <si>
-    <t>l'analyse des composants ci-dessous s'est faite avant la mise à jour de la criticité du plugin DataStage
+    <t>DS_EMAE_RempEmessage 13 =&gt; 2 RM001 et 1 SEQ005 news blocker Issues</t>
+  </si>
+  <si>
+    <t>DS_COCL_RepriseOscare 14 =&gt; 9 JOB027 et 4 RM001 news blocker issues</t>
+  </si>
+  <si>
+    <t>test passage dans l'onglet anomalies closes</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>héritage du QG Java car les composants 14 n'étaient pas rattachés au QG DataStage. Rattachement effectués le 12 Mars.
+Grégoire voit si possible d'automatiser le rattachement du QG DataStage aux "Composant DS_"</t>
+  </si>
+  <si>
+    <t>ouverte</t>
+  </si>
+  <si>
+    <t>close sans création d'ano RTC car :
+l'analyse des composants ci-dessous s'est faite avant la mise à jour de la criticité du plugin DataStage
 DS_DTWH_CLIENT_COMMERCIAL 13 =&gt; 52 news blocker Issue NOM002PX
 DS_DTWH_FACTURATION 13  =&gt; 12 news blocker Issue NOM002PX
 DS_DTWH_FWK0005_ACQUISITION_QUAI 13  =&gt; 341 news blocker Issue NOM002PX</t>
   </si>
   <si>
-    <t>DS_EMAE_RempEmessage 13 =&gt; 2 RM001 et 1 SEQ005 news blocker Issues</t>
-  </si>
-  <si>
-    <t>DS_COCL_RepriseOscare 14 =&gt; 9 JOB027 et 4 RM001 news blocker issues</t>
-  </si>
-  <si>
-    <t>test passage dans l'onglet anomalies closes</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>dérogée</t>
-  </si>
-  <si>
-    <t>DS_FABO_LIB 13 &gt; 1 news blocker Issues SEQ005
-(composant transverse de application Plate-forme de fabrication)</t>
-  </si>
-  <si>
-    <t>expliquée</t>
-  </si>
-  <si>
-    <t>héritage du QG Java car les composants 14 n'étaient pas rattachés au QG DataStage. Rattachement effectués le 12 Mars.
-Grégoire voit si possible d'automatiser le rattachement du QG DataStage aux "Composant DS_"</t>
-  </si>
-  <si>
-    <t>l'analyse des composants s'est faite avant la mise à jour de la criticité du plugin DataStage
+    <t>close sans création d'ano RTC car :
+composant transverse de application Plate-forme de fabrication
+DS_FABO_LIB 13 &gt; 1 news blocker Issues SEQ005</t>
+  </si>
+  <si>
+    <t>close sans création d'ano RTC car :
+l'analyse des composants s'est faite avant la mise à jour de la criticité du plugin DataStage
 DS_DTWH_FWK0005_CHARGEMENT 13  =&gt; 61 news blocker Issue NOM002PX</t>
   </si>
   <si>
-    <t>ouverte</t>
+    <t>DS_PRCO_PRCOM_01 13  &gt; 3 news blocker Issues SEQ005
+au 14 Mars : correction des défauts en cours : reste 2 défauts</t>
+  </si>
+  <si>
+    <t>COMMUNICATION CLIENT</t>
+  </si>
+  <si>
+    <t>DATA FACTORY</t>
+  </si>
+  <si>
+    <t>MARKETING</t>
+  </si>
+  <si>
+    <t>Distribution Sud Est</t>
   </si>
 </sst>
 </file>
@@ -255,7 +265,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,17 +409,58 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -484,7 +535,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,8 +727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor indexed="43"/>
       </patternFill>
     </fill>
     <fill>
@@ -708,16 +758,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
       </patternFill>
     </fill>
   </fills>
@@ -913,7 +953,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -927,44 +967,177 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="18" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="20" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="18" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="18" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="20" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="35" fontId="18" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="26" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
@@ -1016,7 +1189,58 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="20" numFmtId="0" xfId="20">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -1028,16 +1252,34 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1046,7 +1288,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1055,7 +1297,7 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1064,34 +1306,16 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1447,7 +1671,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1461,23 +1685,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19"/>
+      <c r="D1" s="62"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1491,23 +1715,23 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="20"/>
+      <c r="D1" s="63"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1521,25 +1745,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="64"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1547,12 +1771,252 @@
   <cols>
     <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.1171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="20.96875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.84765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.3359375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.5" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="10.41015625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="18.72265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="68.3984375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="9.08984375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="78" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="103" t="n">
+        <v>312996.0</v>
+      </c>
+      <c r="N2" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="109" t="n">
+        <v>312946.0</v>
+      </c>
+      <c r="N3" s="108" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="109" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="114" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="115" t="n">
+        <v>313058.0</v>
+      </c>
+      <c r="N4" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="114" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" s="115" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="M4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.0859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.96875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.84765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="45.546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="19.58203125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.2890625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
@@ -1565,392 +2029,294 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="N1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="98" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="39" t="s">
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="100" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="42" t="s">
+      <c r="A3" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="43" t="n">
-        <v>312996.0</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="43" t="s">
+      <c r="E3" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="105" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="106" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="105" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="43" t="s">
-        <v>33</v>
+      <c r="Q3" s="106" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="C4" s="111" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="45" t="s">
+      <c r="E4" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="46" t="s">
+      <c r="I4" s="112" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="45" t="s">
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="111" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="112" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="48" t="s">
+      <c r="A5" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="49" t="n">
-        <v>312946.0</v>
-      </c>
-      <c r="N5" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="48" t="s">
+      <c r="E5" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="118"/>
+      <c r="K5" t="n" s="119">
+        <v>43166.0</v>
+      </c>
+      <c r="L5" s="119"/>
+      <c r="M5" s="118" t="n">
+        <v>999999.0</v>
+      </c>
+      <c r="N5" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="P5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="49" t="s">
-        <v>33</v>
+      <c r="P5" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="118" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="120" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="51" t="s">
+      <c r="E6" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="H6" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="52" t="s">
+      <c r="K6" t="n" s="122">
+        <v>43166.0</v>
+      </c>
+      <c r="L6" s="122"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="55" t="n">
-        <v>313058.0</v>
-      </c>
-      <c r="N7" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="55" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" t="n" s="59">
-        <v>43166.0</v>
-      </c>
-      <c r="L8" s="59"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="P8" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="58" t="s">
+      <c r="Q6" s="121" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1958,97 +2324,10 @@
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
     <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="M3" r:id="rId3"/>
-    <hyperlink ref="I4" r:id="rId4"/>
-    <hyperlink ref="I5" r:id="rId5"/>
-    <hyperlink ref="M5" r:id="rId6"/>
-    <hyperlink ref="I6" r:id="rId7"/>
-    <hyperlink ref="I7" r:id="rId8"/>
-    <hyperlink ref="M7" r:id="rId9"/>
-    <hyperlink ref="I8" r:id="rId10"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="4.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="4.46484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="4.46484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.03515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="4.46484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.80078125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="4.54296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="4.54296875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.65625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="7.8046875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="5.5859375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="39.52734375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="1.11328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="2">
-      <c r="A2" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="61"/>
-      <c r="K2" t="n" s="62">
-        <v>43166.0</v>
-      </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="61" t="n">
-        <v>999999.0</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="60" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="M5" r:id="rId5"/>
+    <hyperlink ref="I6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,77 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="109"/>
-    <sheet name="E30" r:id="rId10" sheetId="110"/>
-    <sheet name="E32" r:id="rId11" sheetId="111"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="112"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="113"/>
+    <sheet name="E31" r:id="rId9" sheetId="114"/>
+    <sheet name="E30" r:id="rId10" sheetId="115"/>
+    <sheet name="E32" r:id="rId11" sheetId="116"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="117"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="118"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments117.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>MATHON Gregoire</author>
+  </authors>
+  <commentList>
+    <comment ref="O3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MATHON Gregoire:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Comment</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>MATHON Gregoire:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Comment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="75">
   <si>
     <t>Edition</t>
   </si>
@@ -206,20 +265,7 @@
     <t>DS_COCL_RepriseOscare 14 =&gt; 9 JOB027 et 4 RM001 news blocker issues</t>
   </si>
   <si>
-    <t>test passage dans l'onglet anomalies closes</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>héritage du QG Java car les composants 14 n'étaient pas rattachés au QG DataStage. Rattachement effectués le 12 Mars.
-Grégoire voit si possible d'automatiser le rattachement du QG DataStage aux "Composant DS_"</t>
   </si>
   <si>
     <t>ouverte</t>
@@ -256,6 +302,17 @@
   </si>
   <si>
     <t>Distribution Sud Est</t>
+  </si>
+  <si>
+    <t>close sans création d'ano RTC car :
+héritage du QG Java car les composants 14 n'étaient pas rattachés au QG DataStage. Rattachement effectués le 12 Mars.
+Grégoire voit si possible d'automatiser le rattachement du QG DataStage aux "Composant DS_"</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A vérifier</t>
   </si>
 </sst>
 </file>
@@ -265,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,10 +514,17 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -522,20 +586,8 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -742,6 +794,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
@@ -752,12 +814,12 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
       </patternFill>
     </fill>
   </fills>
@@ -1129,21 +1191,30 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
@@ -1249,10 +1320,19 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1261,64 +1341,46 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="35" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1384,6 +1446,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1671,7 +1737,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet109.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1685,23 +1751,95 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="59"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet110.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.12890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="60"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1715,55 +1853,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="63"/>
+      <c r="D1" s="67"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet111.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="64"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet112.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1775,7 +1883,7 @@
     <col min="4" max="4" width="20.96875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.84765625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="19.3359375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.2890625" customWidth="true" bestFit="true"/>
@@ -1783,61 +1891,61 @@
     <col min="12" max="12" width="13.5" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="10.41015625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="18.72265625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="68.3984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="90.91015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="9.08984375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="I1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="L1" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="N1" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="80" t="s">
+      <c r="P1" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="81" t="s">
+      <c r="Q1" s="84" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1849,7 +1957,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="102" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="102" t="s">
         <v>43</v>
@@ -1881,7 +1989,7 @@
         <v>59</v>
       </c>
       <c r="O2" s="102" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P2" s="103" t="s">
         <v>43</v>
@@ -1891,119 +1999,247 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="108" t="s">
+      <c r="C3" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="109" t="n">
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="106" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="109" t="s">
+      <c r="P3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="109" t="s">
+      <c r="Q3" s="106" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="114" t="s">
+      <c r="C4" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="108" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="115" t="s">
+      <c r="H4" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="115" t="s">
+      <c r="I4" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="115" t="s">
+      <c r="J4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="115" t="n">
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="109" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N4" s="114" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" s="114" t="s">
+      <c r="N4" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="115" t="s">
+      <c r="P4" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="Q4" s="109" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="111" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" s="111" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="115" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="114" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="114" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="118" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="118" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="117" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="I3" r:id="rId3"/>
-    <hyperlink ref="M3" r:id="rId4"/>
-    <hyperlink ref="I4" r:id="rId5"/>
-    <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="M2" r:id="rId5"/>
+    <hyperlink ref="I3" r:id="rId6"/>
+    <hyperlink ref="M3" r:id="rId7"/>
+    <hyperlink ref="I4" r:id="rId8"/>
+    <hyperlink ref="M4" r:id="rId9"/>
+    <hyperlink ref="I5" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet113.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2029,305 +2265,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="L1" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="95" t="s">
+      <c r="N1" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="96" t="s">
+      <c r="O1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="97" t="s">
+      <c r="P1" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="98" t="s">
+      <c r="Q1" s="101" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="E2" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="120" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="120" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="n" s="122">
+        <v>43166.0</v>
+      </c>
+      <c r="L2" s="122"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="121" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="100" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="100"/>
-      <c r="N2" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="100" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="105" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="105" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="105" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="106" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="111" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" s="111" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="112" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="117" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="117" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="117" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="118" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="118"/>
-      <c r="K5" t="n" s="119">
-        <v>43166.0</v>
-      </c>
-      <c r="L5" s="119"/>
-      <c r="M5" s="118" t="n">
-        <v>999999.0</v>
-      </c>
-      <c r="N5" s="117" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="P5" s="118" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" s="118" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="120" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="120" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="120" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="n" s="122">
-        <v>43166.0</v>
-      </c>
-      <c r="L6" s="122"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="121" t="s">
+      <c r="Q2" s="121" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="M5" r:id="rId5"/>
-    <hyperlink ref="I6" r:id="rId6"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,77 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="114"/>
-    <sheet name="E30" r:id="rId10" sheetId="115"/>
-    <sheet name="E32" r:id="rId11" sheetId="116"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="117"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="118"/>
+    <sheet name="E31" r:id="rId9" sheetId="124"/>
+    <sheet name="E30" r:id="rId10" sheetId="125"/>
+    <sheet name="E32" r:id="rId11" sheetId="126"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="127"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="128"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
-<file path=xl/comments117.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-    <author>MATHON Gregoire</author>
-  </authors>
-  <commentList>
-    <comment ref="O3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>MATHON Gregoire:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Comment</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>MATHON Gregoire:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Comment</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="82">
   <si>
     <t>Edition</t>
   </si>
@@ -220,9 +161,6 @@
     <t>E31</t>
   </si>
   <si>
-    <t>DOMAINE DISTRIBUTION ET OUTILS SOCLES</t>
-  </si>
-  <si>
     <t>Departement</t>
   </si>
   <si>
@@ -256,9 +194,6 @@
     <t>Date relance</t>
   </si>
   <si>
-    <t>nouvelle</t>
-  </si>
-  <si>
     <t>DS_EMAE_RempEmessage 13 =&gt; 2 RM001 et 1 SEQ005 news blocker Issues</t>
   </si>
   <si>
@@ -271,45 +206,73 @@
     <t>ouverte</t>
   </si>
   <si>
+    <t>DS_PRCO_PRCOM_01 13  &gt; 3 news blocker Issues SEQ005
+au 14 Mars : correction des défauts en cours : reste 2 défauts</t>
+  </si>
+  <si>
+    <t>COMMUNICATION CLIENT</t>
+  </si>
+  <si>
+    <t>DATA FACTORY</t>
+  </si>
+  <si>
+    <t>MARKETING</t>
+  </si>
+  <si>
+    <t>Distribution Sud Est</t>
+  </si>
+  <si>
     <t>close sans création d'ano RTC car :
+héritage du QG Java car les composants 14 n'étaient pas rattachés au QG DataStage. Rattachement effectués le 12 Mars.
+Grégoire voit si possible d'automatiser le rattachement du QG DataStage aux "Composant DS_"</t>
+  </si>
+  <si>
+    <t>close sans création d'ano RTC car :
+composant transverse de application Plate-forme de fabrication
+DS_FABO_LIB 13 &gt; 1 news blocker Issues SEQ005 =&gt; passé en won't fix</t>
+  </si>
+  <si>
+    <t>expliquée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 l'analyse des composants ci-dessous s'est faite avant la mise à jour de la criticité du plugin DataStage
 DS_DTWH_CLIENT_COMMERCIAL 13 =&gt; 52 news blocker Issue NOM002PX
 DS_DTWH_FACTURATION 13  =&gt; 12 news blocker Issue NOM002PX
 DS_DTWH_FWK0005_ACQUISITION_QUAI 13  =&gt; 341 news blocker Issue NOM002PX</t>
   </si>
   <si>
-    <t>close sans création d'ano RTC car :
-composant transverse de application Plate-forme de fabrication
-DS_FABO_LIB 13 &gt; 1 news blocker Issues SEQ005</t>
-  </si>
-  <si>
-    <t>close sans création d'ano RTC car :
+    <t xml:space="preserve">
 l'analyse des composants s'est faite avant la mise à jour de la criticité du plugin DataStage
 DS_DTWH_FWK0005_CHARGEMENT 13  =&gt; 61 news blocker Issue NOM002PX</t>
   </si>
   <si>
-    <t>DS_PRCO_PRCOM_01 13  &gt; 3 news blocker Issues SEQ005
-au 14 Mars : correction des défauts en cours : reste 2 défauts</t>
-  </si>
-  <si>
-    <t>COMMUNICATION CLIENT</t>
-  </si>
-  <si>
-    <t>DATA FACTORY</t>
-  </si>
-  <si>
-    <t>MARKETING</t>
-  </si>
-  <si>
-    <t>Distribution Sud Est</t>
-  </si>
-  <si>
-    <t>close sans création d'ano RTC car :
-héritage du QG Java car les composants 14 n'étaient pas rattachés au QG DataStage. Rattachement effectués le 12 Mars.
-Grégoire voit si possible d'automatiser le rattachement du QG DataStage aux "Composant DS_"</t>
+    <t>Responsable
+Service</t>
+  </si>
+  <si>
+    <t>Traitée</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>ANDRE, MARIANNE</t>
+  </si>
+  <si>
+    <t>MARTIN, CHRISTINE</t>
+  </si>
+  <si>
+    <t>NOSZCZYNSKI, ERIC</t>
+  </si>
+  <si>
+    <t>LANDAIS, PHILIPPE</t>
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>DOMAINE DISTRIBUTION ET OUTILS SOCLES</t>
   </si>
   <si>
     <t>A vérifier</t>
@@ -322,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +422,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -466,6 +430,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -514,19 +479,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <u val="single"/>
@@ -794,22 +746,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
@@ -1015,150 +967,177 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="141">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="23" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
@@ -1167,24 +1146,33 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1194,6 +1182,12 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
@@ -1215,6 +1209,18 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
@@ -1231,7 +1237,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1282,7 +1288,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1323,16 +1329,34 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
@@ -1356,31 +1380,13 @@
     <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1446,10 +1452,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1737,7 +1739,155 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet114.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="72">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s" s="73">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s" s="72">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s" s="72">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="75">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s" s="76">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s" s="75">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s" s="75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="77">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s" s="77">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s" s="77">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="79">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="80">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="79">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="79">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="81">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="82">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="81">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s" s="81">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="83">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s" s="84">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="83">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="83">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1751,125 +1901,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="85" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet115.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.12890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="60"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet116.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="13.734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="7.328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.34765625" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="67"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet117.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R7"/>
   <sheetViews>
@@ -1880,364 +1930,370 @@
     <col min="1" max="1" width="40.1171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="24.4765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="20.96875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.84765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.2890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.5" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="10.41015625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="18.72265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.765625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="19.1875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="90.91015625" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="9.08984375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="9.265625" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="73" t="s">
+      <c r="F1" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="79" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="80" t="s">
+      <c r="L1" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="81" t="s">
+      <c r="N1" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="82" t="s">
+      <c r="O1" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="102" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" t="s" s="120">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s" s="120">
         <v>47</v>
       </c>
-      <c r="B2" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="102" t="s">
+      <c r="C2" t="s" s="120">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s" s="120">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s" s="120">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s" s="120">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s" s="120">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s" s="121">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s" s="121">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="121">
+        <v>17</v>
+      </c>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="121" t="n">
+        <v>312996.0</v>
+      </c>
+      <c r="N2" t="s" s="120">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s" s="120">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s" s="121">
         <v>43</v>
       </c>
-      <c r="E2" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="103" t="n">
-        <v>312996.0</v>
-      </c>
-      <c r="N2" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="O2" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q2" s="103" t="s">
-        <v>29</v>
+      <c r="Q2" t="s" s="121">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="105" t="s">
+      <c r="A3" t="s" s="123">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="123">
         <v>50</v>
       </c>
-      <c r="C3" s="105" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="105" t="s">
+      <c r="C3" t="s" s="123">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s" s="123">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s" s="123">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s" s="123">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s" s="123">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s" s="124">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s" s="124">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s" s="124">
+        <v>17</v>
+      </c>
+      <c r="K3" s="125"/>
+      <c r="L3" s="125"/>
+      <c r="M3" s="124" t="n">
+        <v>313058.0</v>
+      </c>
+      <c r="N3" t="s" s="123">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s" s="123">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s" s="124">
         <v>43</v>
       </c>
-      <c r="E3" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="105" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="106" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="106" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="106" t="n">
-        <v>312946.0</v>
-      </c>
-      <c r="N3" s="105" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q3" s="106" t="s">
+      <c r="Q3" t="s" s="124">
         <v>33</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="108" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="108" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="108" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="109" t="s">
+      <c r="A4" t="s" s="126">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s" s="126">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s" s="126">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s" s="126">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s" s="126">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s" s="126">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s" s="126">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s" s="127">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s" s="127">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s" s="127">
         <v>17</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="109" t="n">
-        <v>313058.0</v>
-      </c>
-      <c r="N4" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="108" t="s">
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="127" t="n">
+        <v>312946.0</v>
+      </c>
+      <c r="N4" t="s" s="126">
         <v>61</v>
       </c>
-      <c r="P4" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="109" t="s">
+      <c r="O4" t="s" s="126">
+        <v>58</v>
+      </c>
+      <c r="P4" t="s" s="127">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="s" s="127">
         <v>33</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="113"/>
-      <c r="L5" s="113"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="111" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="111" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112" t="s">
+      <c r="A5" t="s" s="129">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s" s="129">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s" s="129">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s" s="129">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s" s="129">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="129">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s" s="129">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="130">
+        <v>21</v>
+      </c>
+      <c r="I5" t="s" s="130">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s" s="130">
+        <v>22</v>
+      </c>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="130"/>
+      <c r="N5" t="s" s="129">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s" s="129">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s" s="130">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s" s="130">
         <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="114" t="s">
+      <c r="A6" t="s" s="132">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s" s="132">
         <v>49</v>
       </c>
-      <c r="B6" s="114" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" t="s" s="132">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s" s="132">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s" s="132">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="132">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s" s="132">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="133">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s" s="133">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s" s="133">
+        <v>22</v>
+      </c>
+      <c r="K6" s="134"/>
+      <c r="L6" s="134"/>
+      <c r="M6" s="133"/>
+      <c r="N6" t="s" s="132">
         <v>69</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="115" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="115" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="116"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="114" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="114" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115" t="s">
+      <c r="O6" t="s" s="132">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s" s="133">
+        <v>43</v>
+      </c>
+      <c r="Q6" t="s" s="133">
         <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="117" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="117" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="117" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="117" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="118" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="118" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="117" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="117" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118" t="s">
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" t="s" s="135">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s" s="135">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s" s="135">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s" s="136">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s" s="136">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s" s="136">
+        <v>17</v>
+      </c>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="136"/>
+      <c r="N7" t="s" s="135">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s" s="135">
+        <v>68</v>
+      </c>
+      <c r="P7" s="136"/>
+      <c r="Q7" t="s" s="136">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId4"/>
-    <hyperlink ref="M2" r:id="rId5"/>
-    <hyperlink ref="I3" r:id="rId6"/>
-    <hyperlink ref="M3" r:id="rId7"/>
-    <hyperlink ref="I4" r:id="rId8"/>
-    <hyperlink ref="M4" r:id="rId9"/>
-    <hyperlink ref="I5" r:id="rId10"/>
-    <hyperlink ref="I6" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="M3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="M4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="I6" r:id="rId8"/>
+    <hyperlink ref="I7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet118.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -2245,124 +2301,124 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.0859375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.31640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="28.8984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="20.96875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.84765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="21.43359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="45.546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="19.58203125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.2890625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="14.375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="13.5" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="10.41015625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="18.72265625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.5390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="14.6796875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="13.765625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="10.703125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="19.1875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="108.88671875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="9.08984375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="9.265625" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="93" t="s">
+      <c r="I1" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="97" t="s">
+      <c r="L1" s="114" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="98" t="s">
+      <c r="N1" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="99" t="s">
+      <c r="O1" s="117" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="100" t="s">
+      <c r="P1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="101" t="s">
+      <c r="Q1" s="119" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" t="s" s="138">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="138">
         <v>49</v>
       </c>
-      <c r="B2" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="120" t="s">
+      <c r="C2" t="s" s="138">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s" s="138">
         <v>43</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" t="s" s="138">
         <v>34</v>
       </c>
-      <c r="F2" s="120" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="120" t="s">
+      <c r="F2" t="s" s="138">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s" s="138">
         <v>36</v>
       </c>
-      <c r="H2" s="121" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="121" t="s">
+      <c r="H2" t="s" s="139">
         <v>55</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="I2" t="s" s="139">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s" s="139">
         <v>22</v>
       </c>
-      <c r="K2" t="n" s="122">
+      <c r="K2" t="n" s="140">
         <v>43166.0</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="120" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="120" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="121" t="s">
+      <c r="L2" s="140"/>
+      <c r="M2" s="139"/>
+      <c r="N2" t="s" s="138">
+        <v>60</v>
+      </c>
+      <c r="O2" t="s" s="138">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s" s="139">
         <v>43</v>
       </c>
-      <c r="Q2" s="121" t="s">
+      <c r="Q2" t="s" s="139">
         <v>29</v>
       </c>
     </row>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="124"/>
-    <sheet name="E30" r:id="rId10" sheetId="125"/>
-    <sheet name="E32" r:id="rId11" sheetId="126"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="127"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="128"/>
+    <sheet name="E31" r:id="rId9" sheetId="137"/>
+    <sheet name="E30" r:id="rId10" sheetId="138"/>
+    <sheet name="E32" r:id="rId11" sheetId="139"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="140"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="141"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -247,10 +247,6 @@
 DS_DTWH_FWK0005_CHARGEMENT 13  =&gt; 61 news blocker Issue NOM002PX</t>
   </si>
   <si>
-    <t>Responsable
-Service</t>
-  </si>
-  <si>
     <t>Traitée</t>
   </si>
   <si>
@@ -276,6 +272,15 @@
   </si>
   <si>
     <t>A vérifier</t>
+  </si>
+  <si>
+    <t>Matière</t>
+  </si>
+  <si>
+    <t>E30_Fil_De_Leau</t>
+  </si>
+  <si>
+    <t>DATASTAGE</t>
   </si>
 </sst>
 </file>
@@ -285,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,8 +543,68 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="44">
+  <fills count="57">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +800,11 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="none">
         <fgColor indexed="49"/>
       </patternFill>
@@ -756,6 +826,26 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="43"/>
       </patternFill>
     </fill>
@@ -774,8 +864,48 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -921,6 +1051,20 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -965,9 +1109,9 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="2" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="2" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="251">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1005,223 +1149,517 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="20" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="22" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="35" fontId="0" numFmtId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="35" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="35" fontId="0" numFmtId="14" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="23" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="36" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="36" fontId="25" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="36" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="24" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="38" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="38" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="38" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="42" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="42" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="42" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="34" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="34" fontId="26" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="11" fillId="34" fontId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="44" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="44" fontId="27" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="44" fontId="28" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="46" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="46" fontId="29" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="46" fontId="30" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="46" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="46" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="46" fontId="31" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="46" fontId="32" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="44" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="44" fontId="33" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="44" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="44" fontId="34" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="48" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="48" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="48" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="48" fontId="35" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="44" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="15" fillId="44" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="44" fontId="36" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -1275,6 +1713,9 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1326,67 +1767,100 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="41" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="43" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment vertical="center" wrapText="true" horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="39" borderId="13" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+      <alignment vertical="center" wrapText="true" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1739,7 +2213,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet124.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1753,31 +2227,31 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="169" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>73</v>
+      <c r="D1" s="169" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="72">
+      <c r="A2" t="s" s="170">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="73">
+      <c r="B2" t="s" s="171">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="72">
+      <c r="C2" t="s" s="170">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="72">
-        <v>74</v>
+      <c r="D2" t="s" s="170">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +2259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet125.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1799,87 +2273,87 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="172" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="172" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="74" t="s">
-        <v>73</v>
+      <c r="D1" s="172" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="75">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s" s="76">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s" s="75">
+      <c r="A2" t="s" s="173">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s" s="174">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s" s="173">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="75">
-        <v>74</v>
+      <c r="D2" t="s" s="173">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="77">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="78">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="77">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s" s="77">
-        <v>74</v>
+      <c r="A3" t="s" s="175">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="176">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s" s="175">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s" s="175">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="79">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s" s="80">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s" s="79">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="79">
-        <v>74</v>
+      <c r="A4" t="s" s="177">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s" s="178">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="177">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s" s="177">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="81">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s" s="82">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s" s="81">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s" s="81">
-        <v>74</v>
+      <c r="A5" t="s" s="179">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="180">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="179">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="179">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="83">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s" s="84">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="83">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s" s="83">
-        <v>79</v>
+      <c r="A6" t="s" s="181">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s" s="182">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="181">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s" s="181">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1887,7 +2361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet126.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1901,17 +2375,17 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="85" t="s">
-        <v>73</v>
+      <c r="D1" s="183" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1919,9 +2393,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet127.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1934,7 +2408,7 @@
     <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="79.90234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="30.56640625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="30.4921875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.5390625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="14.6796875" customWidth="true" bestFit="true"/>
@@ -1943,338 +2417,370 @@
     <col min="14" max="14" width="19.1875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="90.91015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="9.265625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.82421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="E1" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="189" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="94" t="s">
+      <c r="I1" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="193" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="96" t="s">
+      <c r="K1" s="194" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="L1" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="M1" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="99" t="s">
+      <c r="N1" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="100" t="s">
+      <c r="O1" s="198" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="101" t="s">
+      <c r="P1" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="102" t="s">
+      <c r="Q1" s="200" t="s">
         <v>13</v>
+      </c>
+      <c r="R1" s="201" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="120">
-        <v>80</v>
-      </c>
-      <c r="B2" t="s" s="120">
+      <c r="A2" t="s" s="220">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s" s="220">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="120">
+      <c r="C2" t="s" s="220">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="120">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s" s="120">
+      <c r="D2" t="s" s="220">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s" s="220">
         <v>30</v>
       </c>
-      <c r="F2" t="s" s="120">
+      <c r="F2" t="s" s="220">
         <v>31</v>
       </c>
-      <c r="G2" t="s" s="120">
+      <c r="G2" t="s" s="220">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="121">
+      <c r="H2" t="s" s="221">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="121">
+      <c r="I2" t="s" s="223">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="121">
+      <c r="J2" t="s" s="221">
         <v>17</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="121" t="n">
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="224" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N2" t="s" s="120">
+      <c r="N2" t="s" s="220">
         <v>61</v>
       </c>
-      <c r="O2" t="s" s="120">
+      <c r="O2" t="s" s="220">
         <v>62</v>
       </c>
-      <c r="P2" t="s" s="121">
+      <c r="P2" t="s" s="221">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="121">
-        <v>33</v>
+      <c r="Q2" t="s" s="221">
+        <v>29</v>
+      </c>
+      <c r="R2" t="s" s="221">
+        <v>83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="123">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s" s="123">
+      <c r="A3" t="s" s="225">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s" s="225">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="123">
+      <c r="C3" t="s" s="225">
         <v>66</v>
       </c>
-      <c r="D3" t="s" s="123">
-        <v>76</v>
-      </c>
-      <c r="E3" t="s" s="123">
+      <c r="D3" t="s" s="225">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s" s="225">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="123">
+      <c r="F3" t="s" s="225">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="123">
+      <c r="G3" t="s" s="225">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="124">
+      <c r="H3" t="s" s="226">
         <v>46</v>
       </c>
-      <c r="I3" t="s" s="124">
+      <c r="I3" t="s" s="228">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="124">
+      <c r="J3" t="s" s="226">
         <v>17</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="124" t="n">
+      <c r="K3" s="227"/>
+      <c r="L3" s="227"/>
+      <c r="M3" s="229" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N3" t="s" s="123">
+      <c r="N3" t="s" s="225">
         <v>61</v>
       </c>
-      <c r="O3" t="s" s="123">
+      <c r="O3" t="s" s="225">
         <v>59</v>
       </c>
-      <c r="P3" t="s" s="124">
+      <c r="P3" t="s" s="226">
         <v>43</v>
       </c>
-      <c r="Q3" t="s" s="124">
+      <c r="Q3" t="s" s="226">
         <v>33</v>
+      </c>
+      <c r="R3" t="s" s="226">
+        <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="126">
+      <c r="A4" t="s" s="230">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="126">
+      <c r="B4" t="s" s="230">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="126">
+      <c r="C4" t="s" s="230">
         <v>65</v>
       </c>
-      <c r="D4" t="s" s="126">
-        <v>77</v>
-      </c>
-      <c r="E4" t="s" s="126">
+      <c r="D4" t="s" s="230">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s" s="230">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="126">
+      <c r="F4" t="s" s="230">
         <v>38</v>
       </c>
-      <c r="G4" t="s" s="126">
+      <c r="G4" t="s" s="230">
         <v>39</v>
       </c>
-      <c r="H4" t="s" s="127">
+      <c r="H4" t="s" s="231">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="127">
+      <c r="I4" t="s" s="233">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="127">
+      <c r="J4" t="s" s="231">
         <v>17</v>
       </c>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="127" t="n">
+      <c r="K4" s="232"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="234" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N4" t="s" s="126">
+      <c r="N4" t="s" s="230">
         <v>61</v>
       </c>
-      <c r="O4" t="s" s="126">
+      <c r="O4" t="s" s="230">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="127">
+      <c r="P4" t="s" s="231">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="127">
+      <c r="Q4" t="s" s="231">
         <v>33</v>
+      </c>
+      <c r="R4" t="s" s="231">
+        <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="129">
+      <c r="A5" t="s" s="235">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="129">
+      <c r="B5" t="s" s="235">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="129">
+      <c r="C5" t="s" s="235">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="129">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s" s="129">
+      <c r="D5" t="s" s="235">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s" s="235">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="129">
+      <c r="F5" t="s" s="235">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="129">
+      <c r="G5" t="s" s="235">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="130">
+      <c r="H5" t="s" s="236">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="130">
+      <c r="I5" t="s" s="238">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="130">
+      <c r="J5" t="s" s="236">
         <v>22</v>
       </c>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="130"/>
-      <c r="N5" t="s" s="129">
+      <c r="K5" s="237"/>
+      <c r="L5" s="237"/>
+      <c r="M5" s="236"/>
+      <c r="N5" t="s" s="235">
         <v>69</v>
       </c>
-      <c r="O5" t="s" s="129">
+      <c r="O5" t="s" s="235">
         <v>70</v>
       </c>
-      <c r="P5" t="s" s="130">
+      <c r="P5" t="s" s="236">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="130">
+      <c r="Q5" t="s" s="236">
         <v>29</v>
+      </c>
+      <c r="R5" t="s" s="236">
+        <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="132">
+      <c r="A6" t="s" s="239">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="132">
+      <c r="B6" t="s" s="239">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="132">
+      <c r="C6" t="s" s="239">
         <v>64</v>
       </c>
-      <c r="D6" t="s" s="132">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s" s="132">
+      <c r="D6" t="s" s="239">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s" s="239">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="132">
+      <c r="F6" t="s" s="239">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="132">
+      <c r="G6" t="s" s="239">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="133">
+      <c r="H6" t="s" s="240">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="133">
+      <c r="I6" t="s" s="242">
         <v>25</v>
       </c>
-      <c r="J6" t="s" s="133">
+      <c r="J6" t="s" s="240">
         <v>22</v>
       </c>
-      <c r="K6" s="134"/>
-      <c r="L6" s="134"/>
-      <c r="M6" s="133"/>
-      <c r="N6" t="s" s="132">
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="240"/>
+      <c r="N6" t="s" s="239">
         <v>69</v>
       </c>
-      <c r="O6" t="s" s="132">
+      <c r="O6" t="s" s="239">
         <v>71</v>
       </c>
-      <c r="P6" t="s" s="133">
+      <c r="P6" t="s" s="240">
         <v>43</v>
       </c>
-      <c r="Q6" t="s" s="133">
+      <c r="Q6" t="s" s="240">
         <v>29</v>
+      </c>
+      <c r="R6" t="s" s="240">
+        <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="135"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" t="s" s="135">
+      <c r="A7" t="s" s="243">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s" s="243">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s" s="243">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s" s="243">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s" s="243">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="135">
+      <c r="F7" t="s" s="243">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="135">
+      <c r="G7" t="s" s="243">
         <v>28</v>
       </c>
-      <c r="H7" t="s" s="136">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s" s="136">
+      <c r="H7" t="s" s="244">
+        <v>82</v>
+      </c>
+      <c r="I7" t="s" s="246">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="136">
+      <c r="J7" t="s" s="244">
         <v>17</v>
       </c>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="136"/>
-      <c r="N7" t="s" s="135">
-        <v>81</v>
-      </c>
-      <c r="O7" t="s" s="135">
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="244"/>
+      <c r="N7" t="s" s="243">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s" s="243">
         <v>68</v>
       </c>
-      <c r="P7" s="136"/>
-      <c r="Q7" t="s" s="136">
+      <c r="P7" t="s" s="244">
+        <v>43</v>
+      </c>
+      <c r="Q7" t="s" s="244">
         <v>29</v>
+      </c>
+      <c r="R7" t="s" s="244">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2293,9 +2799,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet128.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2308,7 +2814,7 @@
     <col min="5" max="5" width="14.21875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="45.546875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="21.92578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="19.58203125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="19.50390625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="11.5390625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="14.6796875" customWidth="true" bestFit="true"/>
@@ -2317,109 +2823,116 @@
     <col min="14" max="14" width="19.1875" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="108.88671875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="9.265625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="10.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="10.78515625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="9.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="202" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="203" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="204" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="205" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="107" t="s">
+      <c r="E1" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="207" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="111" t="s">
+      <c r="I1" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="112" t="s">
+      <c r="J1" s="211" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="113" t="s">
+      <c r="K1" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="213" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="115" t="s">
+      <c r="M1" s="214" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="116" t="s">
+      <c r="N1" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="117" t="s">
+      <c r="O1" s="216" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="118" t="s">
+      <c r="P1" s="217" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="119" t="s">
+      <c r="Q1" s="218" t="s">
         <v>13</v>
+      </c>
+      <c r="R1" s="219" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="138">
+      <c r="A2" t="s" s="247">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="138">
+      <c r="B2" t="s" s="247">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="138">
+      <c r="C2" t="s" s="247">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="138">
+      <c r="D2" t="s" s="247">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="138">
+      <c r="E2" t="s" s="247">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="138">
+      <c r="F2" t="s" s="247">
         <v>56</v>
       </c>
-      <c r="G2" t="s" s="138">
+      <c r="G2" t="s" s="247">
         <v>36</v>
       </c>
-      <c r="H2" t="s" s="139">
+      <c r="H2" t="s" s="248">
         <v>55</v>
       </c>
-      <c r="I2" t="s" s="139">
+      <c r="I2" t="s" s="250">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="139">
+      <c r="J2" t="s" s="248">
         <v>22</v>
       </c>
-      <c r="K2" t="n" s="140">
+      <c r="K2" t="n" s="249">
         <v>43166.0</v>
       </c>
-      <c r="L2" s="140"/>
-      <c r="M2" s="139"/>
-      <c r="N2" t="s" s="138">
+      <c r="L2" s="249"/>
+      <c r="M2" s="248"/>
+      <c r="N2" t="s" s="247">
         <v>60</v>
       </c>
-      <c r="O2" t="s" s="138">
+      <c r="O2" t="s" s="247">
         <v>67</v>
       </c>
-      <c r="P2" t="s" s="139">
+      <c r="P2" t="s" s="248">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="139">
+      <c r="Q2" t="s" s="248">
         <v>29</v>
+      </c>
+      <c r="R2" t="s" s="248">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
+++ b/SonarLysaFX/Suivi_Quality_Gate - DataStage.xlsx
@@ -7,18 +7,18 @@
     <workbookView activeTab="0" windowHeight="12285" windowWidth="27315" xWindow="120" yWindow="360"/>
   </bookViews>
   <sheets>
-    <sheet name="E31" r:id="rId9" sheetId="137"/>
-    <sheet name="E30" r:id="rId10" sheetId="138"/>
-    <sheet name="E32" r:id="rId11" sheetId="139"/>
-    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="140"/>
-    <sheet name="Anomalies closes" r:id="rId13" sheetId="141"/>
+    <sheet name="E31" r:id="rId9" sheetId="172"/>
+    <sheet name="E30" r:id="rId10" sheetId="173"/>
+    <sheet name="E32" r:id="rId11" sheetId="174"/>
+    <sheet name="SUIVI Qualité" r:id="rId12" sheetId="175"/>
+    <sheet name="Anomalies closes" r:id="rId13" sheetId="176"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="84">
   <si>
     <t>Edition</t>
   </si>
@@ -290,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="117" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,8 +603,428 @@
       <u val="single"/>
       <color indexed="12"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
+    </font>
   </fonts>
-  <fills count="57">
+  <fills count="113">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -904,8 +1324,288 @@
         <fgColor indexed="22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1065,6 +1765,55 @@
       <left style="thin"/>
       <right style="thin"/>
     </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -1111,7 +1860,7 @@
     <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="17" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="825">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="11" fillId="33" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1617,49 +2366,1771 @@
     <xf applyBorder="true" applyFill="true" applyFont="true" borderId="15" fillId="44" fontId="36" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="50" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="50" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="50" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="52" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="52" fontId="37" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="52" fontId="38" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="54" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="54" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="54" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="54" fontId="39" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="54" fontId="40" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="54" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="54" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="54" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="54" fontId="41" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="54" fontId="42" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="52" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="52" fontId="43" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="52" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="52" fontId="44" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="56" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="56" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="56" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="56" fontId="45" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="52" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="17" fillId="52" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="17" fillId="52" fontId="46" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="58" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="58" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="58" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="19" fillId="60" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="60" fontId="47" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="60" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="62" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="62" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="19" fillId="62" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="62" fontId="49" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="62" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="62" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="62" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="19" fillId="62" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="62" fontId="51" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="62" fontId="52" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="19" fillId="60" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="60" fontId="53" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="19" fillId="60" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="60" fontId="54" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="64" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="64" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="19" fillId="64" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="64" fontId="55" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="60" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="19" fillId="60" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="19" fillId="60" fontId="56" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="66" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="66" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="66" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="68" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="68" fontId="57" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="68" fontId="58" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="70" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="70" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="70" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="70" fontId="59" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="70" fontId="60" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="70" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="70" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="70" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="70" fontId="61" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="70" fontId="62" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="68" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="68" fontId="63" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="68" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="68" fontId="64" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="72" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="72" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="72" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="72" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="68" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="21" fillId="68" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="21" fillId="68" fontId="66" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="74" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="74" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="74" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="76" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="76" fontId="67" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="76" fontId="68" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="78" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="78" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="78" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="78" fontId="69" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="78" fontId="70" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="78" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="78" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="78" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="78" fontId="71" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="78" fontId="72" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="76" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="76" fontId="73" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="76" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="76" fontId="74" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="80" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="80" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="80" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="80" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="76" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="23" fillId="76" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="23" fillId="76" fontId="76" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="82" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="82" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="82" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="84" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="84" fontId="77" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="84" fontId="78" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="86" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="86" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="86" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="86" fontId="79" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="86" fontId="80" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="86" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="86" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="86" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="86" fontId="81" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="86" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="84" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="84" fontId="83" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="84" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="84" fontId="84" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="88" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="88" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="88" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="88" fontId="85" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="84" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="25" fillId="84" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="25" fillId="84" fontId="86" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="90" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="90" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="90" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="92" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="92" fontId="87" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="92" fontId="88" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="94" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="94" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="94" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="94" fontId="89" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="94" fontId="90" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="94" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="94" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="94" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="94" fontId="91" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="94" fontId="92" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="92" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="92" fontId="93" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="92" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="92" fontId="94" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="96" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="96" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="96" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="96" fontId="95" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="92" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="27" fillId="92" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="27" fillId="92" fontId="96" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="98" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="98" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="98" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="19" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="100" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="100" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="100" fontId="98" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="102" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="102" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="102" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="102" fontId="99" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="102" fontId="100" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="102" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="102" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="102" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="102" fontId="101" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="102" fontId="102" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="100" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="100" fontId="103" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="100" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="100" fontId="104" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="104" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="104" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="104" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="104" fontId="105" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="100" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyNumberFormat="true" borderId="29" fillId="100" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="29" fillId="100" fontId="106" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="106" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="11" fontId="18" numFmtId="0" xfId="20">
@@ -1770,97 +4241,97 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="11" fillId="11" fontId="18" numFmtId="0" xfId="20">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="107" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="108" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="109" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="110" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="111" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="54" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="112" fillId="110" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="113" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="114" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="56" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="115" fillId="112" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
+    <xf numFmtId="164" fontId="0" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyNumberFormat="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="52" borderId="17" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="116" fillId="108" borderId="31" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="center" wrapText="true" horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2213,7 +4684,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet137.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2227,30 +4698,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="743" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="743" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="743" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="743" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="170">
+      <c r="A2" t="s" s="744">
         <v>45</v>
       </c>
-      <c r="B2" t="s" s="171">
+      <c r="B2" t="s" s="745">
         <v>46</v>
       </c>
-      <c r="C2" t="s" s="170">
+      <c r="C2" t="s" s="744">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="170">
+      <c r="D2" t="s" s="744">
         <v>73</v>
       </c>
     </row>
@@ -2259,7 +4730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet138.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet173.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2273,86 +4744,86 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="746" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="746" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="746" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="172" t="s">
+      <c r="D1" s="746" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="173">
+      <c r="A2" t="s" s="747">
         <v>15</v>
       </c>
-      <c r="B2" t="s" s="174">
+      <c r="B2" t="s" s="748">
         <v>82</v>
       </c>
-      <c r="C2" t="s" s="173">
+      <c r="C2" t="s" s="747">
         <v>17</v>
       </c>
-      <c r="D2" t="s" s="173">
+      <c r="D2" t="s" s="747">
         <v>73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="175">
+      <c r="A3" t="s" s="749">
         <v>18</v>
       </c>
-      <c r="B3" t="s" s="176">
+      <c r="B3" t="s" s="750">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="175">
+      <c r="C3" t="s" s="749">
         <v>17</v>
       </c>
-      <c r="D3" t="s" s="175">
+      <c r="D3" t="s" s="749">
         <v>73</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="177">
+      <c r="A4" t="s" s="751">
         <v>20</v>
       </c>
-      <c r="B4" t="s" s="178">
+      <c r="B4" t="s" s="752">
         <v>21</v>
       </c>
-      <c r="C4" t="s" s="177">
+      <c r="C4" t="s" s="751">
         <v>22</v>
       </c>
-      <c r="D4" t="s" s="177">
+      <c r="D4" t="s" s="751">
         <v>73</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="179">
+      <c r="A5" t="s" s="753">
         <v>23</v>
       </c>
-      <c r="B5" t="s" s="180">
+      <c r="B5" t="s" s="754">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="179">
+      <c r="C5" t="s" s="753">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="179">
+      <c r="D5" t="s" s="753">
         <v>73</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="181">
+      <c r="A6" t="s" s="755">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="182">
+      <c r="B6" t="s" s="756">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="181">
+      <c r="C6" t="s" s="755">
         <v>22</v>
       </c>
-      <c r="D6" t="s" s="181">
+      <c r="D6" t="s" s="755">
         <v>73</v>
       </c>
     </row>
@@ -2361,7 +4832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet139.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet174.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2375,16 +4846,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="757" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="183" t="s">
+      <c r="B1" s="757" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="183" t="s">
+      <c r="C1" s="757" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="183" t="s">
+      <c r="D1" s="757" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2393,7 +4864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet140.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet175.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S7"/>
   <sheetViews>
@@ -2422,364 +4893,364 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="758" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="759" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="760" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="761" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="188" t="s">
+      <c r="E1" s="762" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="189" t="s">
+      <c r="F1" s="763" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="190" t="s">
+      <c r="G1" s="764" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="191" t="s">
+      <c r="H1" s="765" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="192" t="s">
+      <c r="I1" s="766" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="193" t="s">
+      <c r="J1" s="767" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="194" t="s">
+      <c r="K1" s="768" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="195" t="s">
+      <c r="L1" s="769" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="196" t="s">
+      <c r="M1" s="770" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="197" t="s">
+      <c r="N1" s="771" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="198" t="s">
+      <c r="O1" s="772" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="199" t="s">
+      <c r="P1" s="773" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="200" t="s">
+      <c r="Q1" s="774" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="201" t="s">
+      <c r="R1" s="775" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="220">
+      <c r="A2" t="s" s="794">
         <v>79</v>
       </c>
-      <c r="B2" t="s" s="220">
+      <c r="B2" t="s" s="794">
         <v>47</v>
       </c>
-      <c r="C2" t="s" s="220">
+      <c r="C2" t="s" s="794">
         <v>63</v>
       </c>
-      <c r="D2" t="s" s="220">
+      <c r="D2" t="s" s="794">
         <v>74</v>
       </c>
-      <c r="E2" t="s" s="220">
+      <c r="E2" t="s" s="794">
         <v>30</v>
       </c>
-      <c r="F2" t="s" s="220">
+      <c r="F2" t="s" s="794">
         <v>31</v>
       </c>
-      <c r="G2" t="s" s="220">
+      <c r="G2" t="s" s="794">
         <v>32</v>
       </c>
-      <c r="H2" t="s" s="221">
+      <c r="H2" t="s" s="795">
         <v>19</v>
       </c>
-      <c r="I2" t="s" s="223">
+      <c r="I2" t="s" s="797">
         <v>18</v>
       </c>
-      <c r="J2" t="s" s="221">
+      <c r="J2" t="s" s="795">
         <v>17</v>
       </c>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="224" t="n">
+      <c r="K2" s="796"/>
+      <c r="L2" s="796"/>
+      <c r="M2" s="798" t="n">
         <v>312996.0</v>
       </c>
-      <c r="N2" t="s" s="220">
+      <c r="N2" t="s" s="794">
         <v>61</v>
       </c>
-      <c r="O2" t="s" s="220">
+      <c r="O2" t="s" s="794">
         <v>62</v>
       </c>
-      <c r="P2" t="s" s="221">
+      <c r="P2" t="s" s="795">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="221">
+      <c r="Q2" t="s" s="795">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="221">
+      <c r="R2" t="s" s="795">
         <v>83</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="225">
+      <c r="A3" t="s" s="799">
         <v>79</v>
       </c>
-      <c r="B3" t="s" s="225">
+      <c r="B3" t="s" s="799">
         <v>50</v>
       </c>
-      <c r="C3" t="s" s="225">
+      <c r="C3" t="s" s="799">
         <v>66</v>
       </c>
-      <c r="D3" t="s" s="225">
+      <c r="D3" t="s" s="799">
         <v>75</v>
       </c>
-      <c r="E3" t="s" s="225">
+      <c r="E3" t="s" s="799">
         <v>51</v>
       </c>
-      <c r="F3" t="s" s="225">
+      <c r="F3" t="s" s="799">
         <v>52</v>
       </c>
-      <c r="G3" t="s" s="225">
+      <c r="G3" t="s" s="799">
         <v>53</v>
       </c>
-      <c r="H3" t="s" s="226">
+      <c r="H3" t="s" s="800">
         <v>46</v>
       </c>
-      <c r="I3" t="s" s="228">
+      <c r="I3" t="s" s="802">
         <v>45</v>
       </c>
-      <c r="J3" t="s" s="226">
+      <c r="J3" t="s" s="800">
         <v>17</v>
       </c>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="229" t="n">
+      <c r="K3" s="801"/>
+      <c r="L3" s="801"/>
+      <c r="M3" s="803" t="n">
         <v>313058.0</v>
       </c>
-      <c r="N3" t="s" s="225">
+      <c r="N3" t="s" s="799">
         <v>61</v>
       </c>
-      <c r="O3" t="s" s="225">
+      <c r="O3" t="s" s="799">
         <v>59</v>
       </c>
-      <c r="P3" t="s" s="226">
+      <c r="P3" t="s" s="800">
         <v>43</v>
       </c>
-      <c r="Q3" t="s" s="226">
+      <c r="Q3" t="s" s="800">
         <v>33</v>
       </c>
-      <c r="R3" t="s" s="226">
+      <c r="R3" t="s" s="800">
         <v>83</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="230">
+      <c r="A4" t="s" s="804">
         <v>48</v>
       </c>
-      <c r="B4" t="s" s="230">
+      <c r="B4" t="s" s="804">
         <v>49</v>
       </c>
-      <c r="C4" t="s" s="230">
+      <c r="C4" t="s" s="804">
         <v>65</v>
       </c>
-      <c r="D4" t="s" s="230">
+      <c r="D4" t="s" s="804">
         <v>76</v>
       </c>
-      <c r="E4" t="s" s="230">
+      <c r="E4" t="s" s="804">
         <v>37</v>
       </c>
-      <c r="F4" t="s" s="230">
+      <c r="F4" t="s" s="804">
         <v>38</v>
       </c>
-      <c r="G4" t="s" s="230">
+      <c r="G4" t="s" s="804">
         <v>39</v>
       </c>
-      <c r="H4" t="s" s="231">
+      <c r="H4" t="s" s="805">
         <v>24</v>
       </c>
-      <c r="I4" t="s" s="233">
+      <c r="I4" t="s" s="807">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="231">
+      <c r="J4" t="s" s="805">
         <v>17</v>
       </c>
-      <c r="K4" s="232"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="234" t="n">
+      <c r="K4" s="806"/>
+      <c r="L4" s="806"/>
+      <c r="M4" s="808" t="n">
         <v>312946.0</v>
       </c>
-      <c r="N4" t="s" s="230">
+      <c r="N4" t="s" s="804">
         <v>61</v>
       </c>
-      <c r="O4" t="s" s="230">
+      <c r="O4" t="s" s="804">
         <v>58</v>
       </c>
-      <c r="P4" t="s" s="231">
+      <c r="P4" t="s" s="805">
         <v>40</v>
       </c>
-      <c r="Q4" t="s" s="231">
+      <c r="Q4" t="s" s="805">
         <v>33</v>
       </c>
-      <c r="R4" t="s" s="231">
+      <c r="R4" t="s" s="805">
         <v>83</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="235">
+      <c r="A5" t="s" s="809">
         <v>48</v>
       </c>
-      <c r="B5" t="s" s="235">
+      <c r="B5" t="s" s="809">
         <v>49</v>
       </c>
-      <c r="C5" t="s" s="235">
+      <c r="C5" t="s" s="809">
         <v>64</v>
       </c>
-      <c r="D5" t="s" s="235">
+      <c r="D5" t="s" s="809">
         <v>77</v>
       </c>
-      <c r="E5" t="s" s="235">
+      <c r="E5" t="s" s="809">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="235">
+      <c r="F5" t="s" s="809">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="235">
+      <c r="G5" t="s" s="809">
         <v>36</v>
       </c>
-      <c r="H5" t="s" s="236">
+      <c r="H5" t="s" s="810">
         <v>21</v>
       </c>
-      <c r="I5" t="s" s="238">
+      <c r="I5" t="s" s="812">
         <v>20</v>
       </c>
-      <c r="J5" t="s" s="236">
+      <c r="J5" t="s" s="810">
         <v>22</v>
       </c>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="236"/>
-      <c r="N5" t="s" s="235">
+      <c r="K5" s="811"/>
+      <c r="L5" s="811"/>
+      <c r="M5" s="810"/>
+      <c r="N5" t="s" s="809">
         <v>69</v>
       </c>
-      <c r="O5" t="s" s="235">
+      <c r="O5" t="s" s="809">
         <v>70</v>
       </c>
-      <c r="P5" t="s" s="236">
+      <c r="P5" t="s" s="810">
         <v>43</v>
       </c>
-      <c r="Q5" t="s" s="236">
+      <c r="Q5" t="s" s="810">
         <v>29</v>
       </c>
-      <c r="R5" t="s" s="236">
+      <c r="R5" t="s" s="810">
         <v>83</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="239">
+      <c r="A6" t="s" s="813">
         <v>48</v>
       </c>
-      <c r="B6" t="s" s="239">
+      <c r="B6" t="s" s="813">
         <v>49</v>
       </c>
-      <c r="C6" t="s" s="239">
+      <c r="C6" t="s" s="813">
         <v>64</v>
       </c>
-      <c r="D6" t="s" s="239">
+      <c r="D6" t="s" s="813">
         <v>77</v>
       </c>
-      <c r="E6" t="s" s="239">
+      <c r="E6" t="s" s="813">
         <v>41</v>
       </c>
-      <c r="F6" t="s" s="239">
+      <c r="F6" t="s" s="813">
         <v>42</v>
       </c>
-      <c r="G6" t="s" s="239">
+      <c r="G6" t="s" s="813">
         <v>36</v>
       </c>
-      <c r="H6" t="s" s="240">
+      <c r="H6" t="s" s="814">
         <v>21</v>
       </c>
-      <c r="I6" t="s" s="242">
+      <c r="I6" t="s" s="816">
         <v>25</v>
       </c>
-      <c r="J6" t="s" s="240">
+      <c r="J6" t="s" s="814">
         <v>22</v>
       </c>
-      <c r="K6" s="241"/>
-      <c r="L6" s="241"/>
-      <c r="M6" s="240"/>
-      <c r="N6" t="s" s="239">
+      <c r="K6" s="815"/>
+      <c r="L6" s="815"/>
+      <c r="M6" s="814"/>
+      <c r="N6" t="s" s="813">
         <v>69</v>
       </c>
-      <c r="O6" t="s" s="239">
+      <c r="O6" t="s" s="813">
         <v>71</v>
       </c>
-      <c r="P6" t="s" s="240">
+      <c r="P6" t="s" s="814">
         <v>43</v>
       </c>
-      <c r="Q6" t="s" s="240">
+      <c r="Q6" t="s" s="814">
         <v>29</v>
       </c>
-      <c r="R6" t="s" s="240">
+      <c r="R6" t="s" s="814">
         <v>83</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="243">
+      <c r="A7" t="s" s="817">
         <v>43</v>
       </c>
-      <c r="B7" t="s" s="243">
+      <c r="B7" t="s" s="817">
         <v>43</v>
       </c>
-      <c r="C7" t="s" s="243">
+      <c r="C7" t="s" s="817">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="243">
+      <c r="D7" t="s" s="817">
         <v>43</v>
       </c>
-      <c r="E7" t="s" s="243">
+      <c r="E7" t="s" s="817">
         <v>26</v>
       </c>
-      <c r="F7" t="s" s="243">
+      <c r="F7" t="s" s="817">
         <v>27</v>
       </c>
-      <c r="G7" t="s" s="243">
+      <c r="G7" t="s" s="817">
         <v>28</v>
       </c>
-      <c r="H7" t="s" s="244">
+      <c r="H7" t="s" s="818">
         <v>82</v>
       </c>
-      <c r="I7" t="s" s="246">
+      <c r="I7" t="s" s="820">
         <v>15</v>
       </c>
-      <c r="J7" t="s" s="244">
+      <c r="J7" t="s" s="818">
         <v>17</v>
       </c>
-      <c r="K7" s="245"/>
-      <c r="L7" s="245"/>
-      <c r="M7" s="244"/>
-      <c r="N7" t="s" s="243">
+      <c r="K7" s="819"/>
+      <c r="L7" s="819"/>
+      <c r="M7" s="818"/>
+      <c r="N7" t="s" s="817">
         <v>80</v>
       </c>
-      <c r="O7" t="s" s="243">
+      <c r="O7" t="s" s="817">
         <v>68</v>
       </c>
-      <c r="P7" t="s" s="244">
+      <c r="P7" t="s" s="818">
         <v>43</v>
       </c>
-      <c r="Q7" t="s" s="244">
+      <c r="Q7" t="s" s="818">
         <v>29</v>
       </c>
-      <c r="R7" t="s" s="244">
+      <c r="R7" t="s" s="818">
         <v>83</v>
       </c>
     </row>
@@ -2799,7 +5270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet141.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet176.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -2828,110 +5299,110 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="776" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="777" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="204" t="s">
+      <c r="C1" s="778" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="205" t="s">
+      <c r="D1" s="779" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="206" t="s">
+      <c r="E1" s="780" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="207" t="s">
+      <c r="F1" s="781" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="208" t="s">
+      <c r="G1" s="782" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="209" t="s">
+      <c r="H1" s="783" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="210" t="s">
+      <c r="I1" s="784" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="211" t="s">
+      <c r="J1" s="785" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="212" t="s">
+      <c r="K1" s="786" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="213" t="s">
+      <c r="L1" s="787" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="214" t="s">
+      <c r="M1" s="788" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="215" t="s">
+      <c r="N1" s="789" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="216" t="s">
+      <c r="O1" s="790" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="217" t="s">
+      <c r="P1" s="791" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="218" t="s">
+      <c r="Q1" s="792" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="219" t="s">
+      <c r="R1" s="793" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="247">
+      <c r="A2" t="s" s="821">
         <v>48</v>
       </c>
-      <c r="B2" t="s" s="247">
+      <c r="B2" t="s" s="821">
         <v>49</v>
       </c>
-      <c r="C2" t="s" s="247">
+      <c r="C2" t="s" s="821">
         <v>64</v>
       </c>
-      <c r="D2" t="s" s="247">
+      <c r="D2" t="s" s="821">
         <v>43</v>
       </c>
-      <c r="E2" t="s" s="247">
+      <c r="E2" t="s" s="821">
         <v>34</v>
       </c>
-      <c r="F2" t="s" s="247">
+      <c r="F2" t="s" s="821">
         <v>56</v>
       </c>
-      <c r="G2" t="s" s="247">
+      <c r="G2" t="s" s="821">
         <v>36</v>
       </c>
-      <c r="H2" t="s" s="248">
+      <c r="H2" t="s" s="822">
         <v>55</v>
       </c>
-      <c r="I2" t="s" s="250">
+      <c r="I2" t="s" s="824">
         <v>54</v>
       </c>
-      <c r="J2" t="s" s="248">
+      <c r="J2" t="s" s="822">
         <v>22</v>
       </c>
-      <c r="K2" t="n" s="249">
+      <c r="K2" t="n" s="823">
         <v>43166.0</v>
       </c>
-      <c r="L2" s="249"/>
-      <c r="M2" s="248"/>
-      <c r="N2" t="s" s="247">
+      <c r="L2" s="823"/>
+      <c r="M2" s="822"/>
+      <c r="N2" t="s" s="821">
         <v>60</v>
       </c>
-      <c r="O2" t="s" s="247">
+      <c r="O2" t="s" s="821">
         <v>67</v>
       </c>
-      <c r="P2" t="s" s="248">
+      <c r="P2" t="s" s="822">
         <v>43</v>
       </c>
-      <c r="Q2" t="s" s="248">
+      <c r="Q2" t="s" s="822">
         <v>29</v>
       </c>
-      <c r="R2" t="s" s="248">
+      <c r="R2" t="s" s="822">
         <v>43</v>
       </c>
     </row>
